--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_309__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_309__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5423,40 +5423,40 @@
                   <c:v>-6.08656644821167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.5067138671875</c:v>
+                  <c:v>77.50672912597656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.34870910644531</c:v>
+                  <c:v>74.34871673583984</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>94.26956176757812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.75687408447266</c:v>
+                  <c:v>72.75685119628906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.038643598556519</c:v>
+                  <c:v>-1.038645148277283</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.8295033574104309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.06407928466797</c:v>
+                  <c:v>92.06409454345703</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.6018881797790527</c:v>
+                  <c:v>-0.6018955707550049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>92.88568878173828</c:v>
+                  <c:v>92.88567352294922</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.5057213306427</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.595942497253418</c:v>
+                  <c:v>0.595945417881012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.64143753051758</c:v>
+                  <c:v>42.64148712158203</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>94.07770538330078</c:v>
@@ -5465,46 +5465,46 @@
                   <c:v>87.82034301757812</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56.65503311157227</c:v>
+                  <c:v>56.65502166748047</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>94.47945404052734</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.046077013015747</c:v>
+                  <c:v>2.046074151992798</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>91.65961456298828</c:v>
+                  <c:v>91.65959930419922</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80.56793212890625</c:v>
+                  <c:v>80.56791687011719</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>95.01321411132812</c:v>
+                  <c:v>95.01323699951172</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-12.90284442901611</c:v>
+                  <c:v>-12.90285682678223</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.2216355800628662</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.284878253936768</c:v>
+                  <c:v>-2.284860610961914</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.7701094150543213</c:v>
+                  <c:v>-0.7701109051704407</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.144154191017151</c:v>
+                  <c:v>1.144160032272339</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.2216355800628662</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>81.90211486816406</c:v>
+                  <c:v>81.90213775634766</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.548796534538269</c:v>
+                  <c:v>-1.548792123794556</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>93.62530517578125</c:v>
@@ -5513,13 +5513,13 @@
                   <c:v>93.35130310058594</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.5099083781242371</c:v>
+                  <c:v>-0.5098965764045715</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>91.86948394775391</c:v>
+                  <c:v>91.86949920654297</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16.74558639526367</c:v>
+                  <c:v>16.74553680419922</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>92.38437652587891</c:v>
@@ -5528,28 +5528,28 @@
                   <c:v>0.2216355800628662</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>89.87992858886719</c:v>
+                  <c:v>89.87992095947266</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>57.38713836669922</c:v>
+                  <c:v>57.38716125488281</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43.89741897583008</c:v>
+                  <c:v>43.89744567871094</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>94.92555999755859</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5603712201118469</c:v>
+                  <c:v>0.5603741407394409</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>84.78902435302734</c:v>
+                  <c:v>84.78900909423828</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>95.23003387451172</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.059616446495056</c:v>
+                  <c:v>-1.059607625007629</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-2.818439960479736</c:v>
@@ -5558,34 +5558,34 @@
                   <c:v>99.04649353027344</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-2.478643894195557</c:v>
+                  <c:v>-2.47863507270813</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.014679551124573</c:v>
+                  <c:v>-1.01468551158905</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>95.56247711181641</c:v>
+                  <c:v>95.56246185302734</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>77.94808959960938</c:v>
+                  <c:v>77.94805908203125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.1696704775094986</c:v>
+                  <c:v>-0.1696837395429611</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>90.78111267089844</c:v>
+                  <c:v>90.7811279296875</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>87.37895965576172</c:v>
+                  <c:v>87.37897491455078</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>90.98458862304688</c:v>
+                  <c:v>90.98459625244141</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0.2216355800628662</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>98.50648498535156</c:v>
+                  <c:v>98.50647735595703</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>94.4188232421875</c:v>
@@ -5594,40 +5594,40 @@
                   <c:v>0.2216355800628662</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>94.79750061035156</c:v>
+                  <c:v>94.79750823974609</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.179427981376648</c:v>
+                  <c:v>1.179429411888123</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.8102110624313354</c:v>
+                  <c:v>-0.8102213740348816</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>37.39815139770508</c:v>
+                  <c:v>37.39816284179688</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.8277919888496399</c:v>
+                  <c:v>0.8277934789657593</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>96.83048248291016</c:v>
+                  <c:v>96.83049011230469</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.2216355800628662</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>76.20241546630859</c:v>
+                  <c:v>76.202392578125</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.5660606622695923</c:v>
+                  <c:v>0.5660577416419983</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>93.374267578125</c:v>
+                  <c:v>93.37423706054688</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>98.34087371826172</c:v>
+                  <c:v>98.34088897705078</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>98.72784423828125</c:v>
+                  <c:v>98.72785949707031</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>88.41221618652344</c:v>
@@ -5636,7 +5636,7 @@
                   <c:v>96.69557952880859</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.5881719589233398</c:v>
+                  <c:v>-0.5881675481796265</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>95.23683929443359</c:v>
@@ -5645,16 +5645,16 @@
                   <c:v>98.72431182861328</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>86.23721313476562</c:v>
+                  <c:v>86.2371826171875</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>91.84820556640625</c:v>
+                  <c:v>91.84819030761719</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.2216355800628662</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>83.03030395507812</c:v>
+                  <c:v>83.03028869628906</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>95.28923034667969</c:v>
@@ -5666,7 +5666,7 @@
                   <c:v>0.2216355800628662</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.3542457818984985</c:v>
+                  <c:v>0.3542501926422119</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>93.23999786376953</c:v>
@@ -5684,7 +5684,7 @@
                   <c:v>0.2216355800628662</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>91.88886260986328</c:v>
+                  <c:v>91.88883972167969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>77.5067138671875</v>
+        <v>77.50672912597656</v>
       </c>
       <c r="G4">
         <v>109</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>74.34870910644531</v>
+        <v>74.34871673583984</v>
       </c>
       <c r="G5">
         <v>109</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>72.75687408447266</v>
+        <v>72.75685119628906</v>
       </c>
       <c r="G7">
         <v>109</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.038643598556519</v>
+        <v>-1.038645148277283</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>92.06407928466797</v>
+        <v>92.06409454345703</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.6018881797790527</v>
+        <v>-0.6018955707550049</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>91.3809</v>
       </c>
       <c r="F12">
-        <v>92.88568878173828</v>
+        <v>92.88567352294922</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.595942497253418</v>
+        <v>0.595945417881012</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>42.64143753051758</v>
+        <v>42.64148712158203</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6771,7 +6771,7 @@
         <v>63.9475</v>
       </c>
       <c r="F18">
-        <v>56.65503311157227</v>
+        <v>56.65502166748047</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.046077013015747</v>
+        <v>2.046074151992798</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>98.4349</v>
       </c>
       <c r="F21">
-        <v>91.65961456298828</v>
+        <v>91.65959930419922</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>80.56793212890625</v>
+        <v>80.56791687011719</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>93.91419999999999</v>
       </c>
       <c r="F23">
-        <v>95.01321411132812</v>
+        <v>95.01323699951172</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-12.90284442901611</v>
+        <v>-12.90285682678223</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-2.284878253936768</v>
+        <v>-2.284860610961914</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.7701094150543213</v>
+        <v>-0.7701109051704407</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.144154191017151</v>
+        <v>1.144160032272339</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>77.453</v>
       </c>
       <c r="F30">
-        <v>81.90211486816406</v>
+        <v>81.90213775634766</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-1.548796534538269</v>
+        <v>-1.548792123794556</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.5099083781242371</v>
+        <v>-0.5098965764045715</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>97.8249</v>
       </c>
       <c r="F35">
-        <v>91.86948394775391</v>
+        <v>91.86949920654297</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>16.74558639526367</v>
+        <v>16.74553680419922</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>81.6122</v>
       </c>
       <c r="F39">
-        <v>89.87992858886719</v>
+        <v>89.87992095947266</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>57.38713836669922</v>
+        <v>57.38716125488281</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>43.89741897583008</v>
+        <v>43.89744567871094</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.5603712201118469</v>
+        <v>0.5603741407394409</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>84.78902435302734</v>
+        <v>84.78900909423828</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-1.059616446495056</v>
+        <v>-1.059607625007629</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-2.478643894195557</v>
+        <v>-2.47863507270813</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-1.014679551124573</v>
+        <v>-1.01468551158905</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>95.56247711181641</v>
+        <v>95.56246185302734</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>81.8018</v>
       </c>
       <c r="F52">
-        <v>77.94808959960938</v>
+        <v>77.94805908203125</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-0.1696704775094986</v>
+        <v>-0.1696837395429611</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>90.78111267089844</v>
+        <v>90.7811279296875</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>87.37895965576172</v>
+        <v>87.37897491455078</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>93.425</v>
       </c>
       <c r="F56">
-        <v>90.98458862304688</v>
+        <v>90.98459625244141</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>98.0081</v>
       </c>
       <c r="F58">
-        <v>98.50648498535156</v>
+        <v>98.50647735595703</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>91.2393</v>
       </c>
       <c r="F61">
-        <v>94.79750061035156</v>
+        <v>94.79750823974609</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.179427981376648</v>
+        <v>1.179429411888123</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.8102110624313354</v>
+        <v>-0.8102213740348816</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>37.39815139770508</v>
+        <v>37.39816284179688</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.8277919888496399</v>
+        <v>0.8277934789657593</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.69540000000001</v>
       </c>
       <c r="F66">
-        <v>96.83048248291016</v>
+        <v>96.83049011230469</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>76.20241546630859</v>
+        <v>76.202392578125</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.5660606622695923</v>
+        <v>0.5660577416419983</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>95.2567</v>
       </c>
       <c r="F70">
-        <v>93.374267578125</v>
+        <v>93.37423706054688</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>98.4734</v>
       </c>
       <c r="F71">
-        <v>98.34087371826172</v>
+        <v>98.34088897705078</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>98.3015</v>
       </c>
       <c r="F72">
-        <v>98.72784423828125</v>
+        <v>98.72785949707031</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-0.5881719589233398</v>
+        <v>-0.5881675481796265</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>79.8989</v>
       </c>
       <c r="F78">
-        <v>86.23721313476562</v>
+        <v>86.2371826171875</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>88.10899999999999</v>
       </c>
       <c r="F79">
-        <v>91.84820556640625</v>
+        <v>91.84819030761719</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>83.03030395507812</v>
+        <v>83.03028869628906</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.3542457818984985</v>
+        <v>0.3542501926422119</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>91.88886260986328</v>
+        <v>91.88883972167969</v>
       </c>
     </row>
     <row r="92" spans="1:6">
